--- a/loons sub tracking.xlsx
+++ b/loons sub tracking.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak_laptop\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462B7463-1455-4473-86B4-A8855C3D58AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F3C45-0D92-4C6E-BA96-CA4DDD44E005}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD62DD17-6B96-464E-8411-D5C8E3EC68DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -902,9 +903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B9EA8F-70D5-42F4-9191-F7A67CDFBCA7}">
   <dimension ref="A1:S220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12940,4 +12941,20 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E6E843-B39A-4ADB-9C15-F14EC8BD4E7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>